--- a/core/common/commonConfig/cRoleAttribute.xlsx
+++ b/core/common/commonConfig/cRoleAttribute.xlsx
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1">
+    <comment ref="K2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>属性id</t>
   </si>
@@ -224,7 +224,7 @@
   </si>
   <si>
     <t>RoleAttributeType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>角色属性类型表</t>
@@ -234,18 +234,53 @@
     <rPh sb="2" eb="3">
       <t>shu'xing</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前属性是否可超过上限值</t>
+    <rPh sb="4" eb="5">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chao'guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canOverMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -329,26 +364,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,11 +693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -667,13 +708,14 @@
     <col min="5" max="7" width="14.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="18.6640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -687,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,17 +757,20 @@
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -751,17 +796,20 @@
       <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -789,17 +837,20 @@
       <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -827,127 +878,130 @@
       <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
@@ -1319,7 +1373,7 @@
       <c r="D108" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -1365,7 +1419,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1379,7 +1433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
